--- a/app/api/management/commands/JBRYGU_Introduction_to_Database_-_Quiz_1-results.xlsx
+++ b/app/api/management/commands/JBRYGU_Introduction_to_Database_-_Quiz_1-results.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64CBDA-7AE1-45B0-83B6-645785388473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="19275" yWindow="2805" windowWidth="23640" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main results" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Q1" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Q2" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Q3" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Q4" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Q5" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Wall" state="visible" r:id="rId10"/>
+    <sheet name="Main results" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="2" r:id="rId2"/>
+    <sheet name="Q2" sheetId="3" r:id="rId3"/>
+    <sheet name="Q3" sheetId="4" r:id="rId4"/>
+    <sheet name="Q4" sheetId="5" r:id="rId5"/>
+    <sheet name="Q5" sheetId="6" r:id="rId6"/>
+    <sheet name="Wall" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -218,19 +222,43 @@
   </si>
   <si>
     <t>Archived?</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>#TEST</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>X - SET, MODIFY</t>
+  </si>
+  <si>
+    <t>V - DELETE</t>
+  </si>
+  <si>
+    <t>V - Relational</t>
+  </si>
+  <si>
+    <t>X - Schema-less data model</t>
+  </si>
+  <si>
+    <t>testuser@e.ntu.edu.sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -596,9 +624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -683,51 +716,91 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -919,14 +992,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1118,14 +1196,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1317,14 +1398,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1516,14 +1602,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1715,14 +1806,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -1781,6 +1875,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>